--- a/result/result.xlsx
+++ b/result/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>number</t>
   </si>
@@ -54,7 +54,10 @@
  2.83930029e+03 2.83935986e+03]</t>
   </si>
   <si>
-    <t>[33 33 33 ... 62 65 65]</t>
+    <t>[33. 33. 33. ... 62. 65. 65.]</t>
+  </si>
+  <si>
+    <t>658921</t>
   </si>
   <si>
     <t>['A' 'A' 'A' ... 'G' 'G' 'G']</t>
@@ -485,23 +488,23 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2">
-        <v>658921</v>
+      <c r="F2" t="s">
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/result/result.xlsx
+++ b/result/result.xlsx
@@ -54,7 +54,7 @@
  2.83930029e+03 2.83935986e+03]</t>
   </si>
   <si>
-    <t>[33. 33. 33. ... 62. 65. 65.]</t>
+    <t>-33.0</t>
   </si>
   <si>
     <t>658921</t>
@@ -75,7 +75,7 @@
  0.00000000e+00 0.00000000e+00]</t>
   </si>
   <si>
-    <t>[1.85645059e-04 1.52584980e-05 5.08616601e-06 ... 0.00000000e+00
+    <t>[1.52587747e-05 1.25414587e-06 4.18048622e-07 ... 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
   </si>
 </sst>
